--- a/src/main/resources/static/upload/MN.xlsx
+++ b/src/main/resources/static/upload/MN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>序号</t>
   </si>
@@ -32,16 +32,13 @@
     <t>密码</t>
   </si>
   <si>
-    <t>课程代码</t>
-  </si>
-  <si>
     <t>教学班</t>
   </si>
   <si>
-    <t>1640129320</t>
-  </si>
-  <si>
-    <t>李家庆</t>
+    <t>1640129313</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>男</t>
@@ -53,16 +50,22 @@
     <t>1316084791</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>MSD123</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>1640129323</t>
+    <t>1640129317</t>
+  </si>
+  <si>
+    <t>李家庆2</t>
+  </si>
+  <si>
+    <t>1640129321</t>
+  </si>
+  <si>
+    <t>李家庆6</t>
+  </si>
+  <si>
+    <t>1640129314</t>
+  </si>
+  <si>
+    <t>李嘉庆</t>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,11 +132,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -141,55 +141,87 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/main/resources/static/upload/MN.xlsx
+++ b/src/main/resources/static/upload/MN.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>序号</t>
   </si>
@@ -35,37 +35,67 @@
     <t>教学班</t>
   </si>
   <si>
-    <t>1640129313</t>
-  </si>
-  <si>
-    <t>123</t>
+    <t>1640129314</t>
+  </si>
+  <si>
+    <t>李家庆1</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
-    <t>软工4班</t>
-  </si>
-  <si>
-    <t>1316084791</t>
+    <t>16软工4班</t>
+  </si>
+  <si>
+    <t>13160847917</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>1640129315</t>
+  </si>
+  <si>
+    <t>李家庆2</t>
+  </si>
+  <si>
+    <t>16软工5班</t>
+  </si>
+  <si>
+    <t>1640129316</t>
+  </si>
+  <si>
+    <t>李家庆3</t>
+  </si>
+  <si>
+    <t>16软工6班</t>
   </si>
   <si>
     <t>1640129317</t>
   </si>
   <si>
-    <t>李家庆2</t>
-  </si>
-  <si>
-    <t>1640129321</t>
+    <t>李家庆4</t>
+  </si>
+  <si>
+    <t>16软工7班</t>
+  </si>
+  <si>
+    <t>1640129318</t>
+  </si>
+  <si>
+    <t>李家庆5</t>
+  </si>
+  <si>
+    <t>16软工8班</t>
+  </si>
+  <si>
+    <t>1640129319</t>
   </si>
   <si>
     <t>李家庆6</t>
   </si>
   <si>
-    <t>1640129314</t>
-  </si>
-  <si>
-    <t>李嘉庆</t>
+    <t>16软工9班</t>
   </si>
 </sst>
 </file>
@@ -110,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,72 +186,114 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
